--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCHTKT/BC_ThoiGianLamViec-SXBH_T11.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCHTKT/BC_ThoiGianLamViec-SXBH_T11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\BCHTKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Thời gian trực HTKT (giờ)</t>
   </si>
   <si>
-    <t>Số ngày làm thêm</t>
-  </si>
-  <si>
     <t>Số ngày làm online (ngày)</t>
   </si>
   <si>
@@ -86,7 +83,7 @@
     <t>BÁO CÁO THỜI GIAN LÀM VIỆC THÁNG 11</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Số ngày nghỉ phép ( tính công)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +561,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -615,16 +612,16 @@
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
       <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -668,14 +665,17 @@
       <c r="G4" s="1">
         <v>21</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1">
+        <f>SUM(H4:J4)</f>
         <v>24</v>
       </c>
     </row>
@@ -701,7 +701,9 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
@@ -709,6 +711,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="1">
+        <f t="shared" ref="K5:K7" si="0">SUM(H5:J5)</f>
         <v>24</v>
       </c>
     </row>
@@ -723,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
@@ -734,14 +737,17 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -767,7 +773,9 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
@@ -775,12 +783,13 @@
         <v>23</v>
       </c>
       <c r="K7" s="1">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCHTKT/BC_ThoiGianLamViec-SXBH_T11.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCHTKT/BC_ThoiGianLamViec-SXBH_T11.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>Số ngày nghỉ phép ( tính công)</t>
+  </si>
+  <si>
+    <t>1,5 P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +119,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -237,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,9 +257,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -277,6 +283,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +573,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,55 +592,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
@@ -638,10 +650,10 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -653,25 +665,25 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="13">
         <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>21</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="13">
         <v>22</v>
       </c>
       <c r="K4" s="1">
@@ -689,26 +701,27 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
+        <f>E5</f>
         <v>20</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
-        <v>23</v>
+      <c r="J5" s="13">
+        <v>21.5</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K7" si="0">SUM(H5:J5)</f>
@@ -725,25 +738,26 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <v>20</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+        <f>E6</f>
+        <v>20</v>
+      </c>
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="13">
         <v>22</v>
       </c>
       <c r="K6" s="1">
@@ -761,25 +775,26 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="13">
         <v>20</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="1">
+        <f>E7</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="I7" s="13">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="13">
         <v>23</v>
       </c>
       <c r="K7" s="1">
